--- a/pthreadopenMP/数据1.xlsx
+++ b/pthreadopenMP/数据1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\27979\Desktop\并行程序设计\pthreadopenMP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DAC512-2119-41E2-B2C9-96FDA1D13CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5445" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="13972" windowHeight="9270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,6 +20,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
   <si>
     <t>nprobe</t>
   </si>
@@ -44,6 +40,9 @@
     <t>recall</t>
   </si>
   <si>
+    <t>ivf</t>
+  </si>
+  <si>
     <t>flat_latency</t>
   </si>
   <si>
@@ -62,83 +61,53 @@
     <t>openMP_simd</t>
   </si>
   <si>
-    <t>ivf</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ivf+pq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>flat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>openMP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pthread_static</t>
   </si>
   <si>
     <t>openMP+simd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>pq+ivf</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pthread_static</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>L1_HIT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>L1_MISS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>L2_HIT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>L2_MISS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>L3_HIT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>L3_MISS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>reordered(cache-friendly)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>unordered</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>instructions_retired</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pthread_dynamic</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>openMP+SIMD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>1. 负优化原因</t>
     </r>
     <r>
@@ -146,25 +115,53 @@
         <sz val="5"/>
         <color rgb="FF3B3B3B"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>：</t>
     </r>
   </si>
   <si>
+    <t>IVF(OpenMP+SIMD)</t>
+  </si>
+  <si>
+    <t>multi(openMP)</t>
+  </si>
+  <si>
+    <t>ivf+hnsw(openMP)</t>
+  </si>
+  <si>
+    <t>ivf+hnsw(openMP+simd)</t>
+  </si>
+  <si>
     <t>并行化引入的开销超过了收益</t>
   </si>
   <si>
+    <t>instructions_retired</t>
+  </si>
+  <si>
+    <t>CPI</t>
+  </si>
+  <si>
     <t>收集邻居和创建距离向量的额外内存分配开销</t>
   </si>
   <si>
     <t>OpenMP线程创建和管理的开销</t>
   </si>
   <si>
+    <t>pthread_dynamic</t>
+  </si>
+  <si>
     <t>批处理破坏了原算法中的早期剪枝效果（原算法可能在处理部分邻居后就通过lowerBound更新来剪枝后续计算）</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>2. 恢复为串行版本的好处</t>
     </r>
     <r>
@@ -172,15 +169,21 @@
         <sz val="5"/>
         <color rgb="FF3B3B3B"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>：</t>
     </r>
   </si>
   <si>
+    <t>openMP+SIMD</t>
+  </si>
+  <si>
     <t>保持了HNSW算法贪心搜索的渐进性，每处理一个邻居就更新lowerBound</t>
   </si>
   <si>
+    <t>IVF-PQ(OpenMP+SIMD)</t>
+  </si>
+  <si>
     <t>避免了额外的内存分配</t>
   </si>
   <si>
@@ -190,47 +193,37 @@
     <t>消除了线程同步和管理开销</t>
   </si>
   <si>
-    <t>multi(openMP)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ivf+hnsw(openMP)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ivf+hnsw(openMP+simd)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>PDNC(pthread)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PDNC(OpenMP)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>IVF+HNSW(OpenMP)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>IVF+HNSW(OpenMP+SIMD)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(IVF-)HNSW(OpenMP+SIMD)</t>
   </si>
   <si>
     <t>pthread</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,49 +239,358 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="5"/>
+      <color rgb="FF3B3B3B"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color rgb="FF3B3B3B"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="5"/>
-      <color rgb="FF3B3B3B"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="5"/>
-      <color rgb="FF3B3B3B"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -296,13 +598,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -312,13 +856,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -327,33 +868,84 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -600,40 +1192,41 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="124" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U32" sqref="U32"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="25.59765625" customWidth="1"/>
-    <col min="2" max="2" width="22.06640625" customWidth="1"/>
-    <col min="3" max="3" width="18.265625" customWidth="1"/>
-    <col min="4" max="4" width="18.9296875" customWidth="1"/>
-    <col min="5" max="5" width="19.1328125" customWidth="1"/>
-    <col min="6" max="6" width="22.796875" customWidth="1"/>
-    <col min="7" max="7" width="17.73046875" customWidth="1"/>
-    <col min="8" max="8" width="18.265625" customWidth="1"/>
-    <col min="9" max="9" width="21.06640625" customWidth="1"/>
-    <col min="10" max="10" width="26.265625" customWidth="1"/>
-    <col min="11" max="12" width="9.53125"/>
-    <col min="16" max="16" width="17.6640625" customWidth="1"/>
-    <col min="17" max="17" width="29.265625" customWidth="1"/>
-    <col min="18" max="18" width="26.6640625" customWidth="1"/>
-    <col min="19" max="19" width="32.06640625" customWidth="1"/>
-    <col min="20" max="20" width="14.6640625" customWidth="1"/>
-    <col min="21" max="21" width="16.796875" customWidth="1"/>
+    <col min="1" max="1" width="25.6017699115044" customWidth="1"/>
+    <col min="2" max="2" width="22.070796460177" customWidth="1"/>
+    <col min="3" max="3" width="18.2654867256637" customWidth="1"/>
+    <col min="4" max="4" width="18.929203539823" customWidth="1"/>
+    <col min="5" max="5" width="19.1327433628319" customWidth="1"/>
+    <col min="6" max="6" width="22.7964601769912" customWidth="1"/>
+    <col min="7" max="7" width="17.7345132743363" customWidth="1"/>
+    <col min="8" max="8" width="18.2654867256637" customWidth="1"/>
+    <col min="9" max="9" width="21.070796460177" customWidth="1"/>
+    <col min="10" max="10" width="26.2654867256637" customWidth="1"/>
+    <col min="11" max="11" width="24.4690265486726" customWidth="1"/>
+    <col min="12" max="12" width="9.53097345132743"/>
+    <col min="16" max="16" width="9.79646017699115" customWidth="1"/>
+    <col min="17" max="17" width="8.66371681415929" customWidth="1"/>
+    <col min="18" max="18" width="10.8672566371681" customWidth="1"/>
+    <col min="19" max="19" width="11.2654867256637" customWidth="1"/>
+    <col min="20" max="20" width="14.6637168141593" customWidth="1"/>
+    <col min="21" max="21" width="16.7964601769912" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1">
         <v>128</v>
       </c>
@@ -658,61 +1251,61 @@
       <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>9</v>
+      <c r="N1" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="O1">
         <v>1024</v>
       </c>
       <c r="P1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="2:21">
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>269.66199999999998</v>
+        <v>269.662</v>
       </c>
       <c r="D2">
-        <v>0.57784999999999997</v>
+        <v>0.57785</v>
       </c>
       <c r="J2">
         <v>4</v>
       </c>
       <c r="K2">
-        <v>293.32900000000001</v>
+        <v>293.329</v>
       </c>
       <c r="L2">
-        <v>0.69675200000000004</v>
+        <v>0.696752</v>
       </c>
       <c r="O2">
         <v>16</v>
       </c>
       <c r="P2">
-        <v>966.45500000000004</v>
+        <v>966.455</v>
       </c>
       <c r="Q2">
-        <v>720.11099999999999</v>
+        <v>720.111</v>
       </c>
       <c r="R2">
-        <v>303.75900000000001</v>
+        <v>303.759</v>
       </c>
       <c r="S2">
         <v>203.88</v>
@@ -721,42 +1314,42 @@
         <v>126.733</v>
       </c>
       <c r="U2">
-        <v>70.749499999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+        <v>70.7495</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21">
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>715.40300000000002</v>
+        <v>715.403</v>
       </c>
       <c r="D3">
-        <v>0.74705100000000002</v>
+        <v>0.747051</v>
       </c>
       <c r="J3">
         <v>8</v>
       </c>
       <c r="K3">
-        <v>408.99299999999999</v>
+        <v>408.993</v>
       </c>
       <c r="L3">
-        <v>0.82430300000000001</v>
+        <v>0.824303</v>
       </c>
       <c r="O3">
-        <v>0.90960399999999997</v>
+        <v>0.909604</v>
       </c>
       <c r="P3">
         <v>801.02</v>
       </c>
       <c r="Q3">
-        <v>691.35599999999999</v>
+        <v>691.356</v>
       </c>
       <c r="R3">
-        <v>302.75099999999998</v>
+        <v>302.751</v>
       </c>
       <c r="S3">
-        <v>211.35400000000001</v>
+        <v>211.354</v>
       </c>
       <c r="T3">
         <v>157.428</v>
@@ -765,30 +1358,30 @@
         <v>68.6785</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:21">
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>764.60900000000004</v>
+        <v>764.609</v>
       </c>
       <c r="D4">
-        <v>0.82925099999999996</v>
+        <v>0.829251</v>
       </c>
       <c r="J4">
         <v>12</v>
       </c>
       <c r="K4">
-        <v>514.50599999999997</v>
+        <v>514.506</v>
       </c>
       <c r="L4">
-        <v>0.87875400000000004</v>
+        <v>0.878754</v>
       </c>
       <c r="P4">
-        <v>827.43200000000002</v>
+        <v>827.432</v>
       </c>
       <c r="Q4">
-        <v>678.43299999999999</v>
+        <v>678.433</v>
       </c>
       <c r="R4">
         <v>261.67</v>
@@ -803,7 +1396,7 @@
         <v>82.56</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:21">
       <c r="B5">
         <v>4</v>
       </c>
@@ -811,7 +1404,7 @@
         <v>946.678</v>
       </c>
       <c r="D5">
-        <v>0.87365300000000001</v>
+        <v>0.873653</v>
       </c>
       <c r="J5">
         <v>16</v>
@@ -820,31 +1413,31 @@
         <v>695.904</v>
       </c>
       <c r="L5">
-        <v>0.90960399999999997</v>
+        <v>0.909604</v>
       </c>
       <c r="P5">
         <f>AVERAGE(P2:P4)</f>
-        <v>864.96900000000005</v>
+        <v>864.969</v>
       </c>
       <c r="Q5">
         <f>AVERAGE(Q2:Q4)</f>
-        <v>696.63333333333298</v>
+        <v>696.633333333333</v>
       </c>
       <c r="R5">
-        <v>286.65499999999997</v>
+        <v>286.655</v>
       </c>
       <c r="S5">
         <f>AVERAGE(S2:S4)</f>
         <v>205.578</v>
       </c>
       <c r="T5">
-        <v>129.56399999999999</v>
+        <v>129.564</v>
       </c>
       <c r="U5">
-        <v>78.921999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+        <v>78.922</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
       <c r="B6">
         <v>5</v>
       </c>
@@ -852,19 +1445,19 @@
         <v>1180.55</v>
       </c>
       <c r="D6">
-        <v>0.90345200000000003</v>
+        <v>0.903452</v>
       </c>
       <c r="J6">
         <v>20</v>
       </c>
       <c r="K6">
-        <v>800.16399999999999</v>
+        <v>800.164</v>
       </c>
       <c r="L6">
-        <v>0.93005300000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+        <v>0.930053</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
       <c r="B7">
         <v>6</v>
       </c>
@@ -872,19 +1465,19 @@
         <v>1468.33</v>
       </c>
       <c r="D7">
-        <v>0.92240299999999997</v>
+        <v>0.922403</v>
       </c>
       <c r="J7">
         <v>24</v>
       </c>
       <c r="K7">
-        <v>854.66200000000003</v>
+        <v>854.662</v>
       </c>
       <c r="L7">
-        <v>0.94265200000000005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+        <v>0.942652</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
       <c r="B8">
         <v>7</v>
       </c>
@@ -892,19 +1485,19 @@
         <v>1703.99</v>
       </c>
       <c r="D8">
-        <v>0.93735299999999999</v>
+        <v>0.937353</v>
       </c>
       <c r="J8">
         <v>28</v>
       </c>
       <c r="K8">
-        <v>967.69299999999998</v>
+        <v>967.693</v>
       </c>
       <c r="L8">
-        <v>0.95295200000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+        <v>0.952952</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19">
       <c r="B9">
         <v>8</v>
       </c>
@@ -918,28 +1511,28 @@
         <v>32</v>
       </c>
       <c r="K9">
-        <v>1144.8599999999999</v>
+        <v>1144.86</v>
       </c>
       <c r="L9">
         <v>0.961202</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="P9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="R9" s="3" t="s">
+      <c r="Q9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="R9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="14:19">
       <c r="N10">
         <v>16</v>
       </c>
@@ -947,7 +1540,7 @@
         <v>450.02</v>
       </c>
       <c r="Q10">
-        <v>392.36200000000002</v>
+        <v>392.362</v>
       </c>
       <c r="R10">
         <v>171.31</v>
@@ -956,7 +1549,7 @@
         <v>146.32</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>256</v>
       </c>
@@ -985,36 +1578,36 @@
         <v>16</v>
       </c>
       <c r="P11">
-        <v>462.12900000000002</v>
+        <v>462.129</v>
       </c>
       <c r="Q11">
-        <v>371.03500000000003</v>
+        <v>371.035</v>
       </c>
       <c r="R11">
         <v>163.87</v>
       </c>
       <c r="S11">
-        <v>153.30699999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+        <v>153.307</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19">
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>217.47800000000001</v>
+        <v>217.478</v>
       </c>
       <c r="D12">
-        <v>0.50585000000000002</v>
+        <v>0.50585</v>
       </c>
       <c r="J12">
         <v>4</v>
       </c>
       <c r="K12">
-        <v>431.54399999999998</v>
+        <v>431.544</v>
       </c>
       <c r="L12">
-        <v>0.62430099999999999</v>
+        <v>0.624301</v>
       </c>
       <c r="N12">
         <v>1024</v>
@@ -1023,7 +1616,7 @@
         <v>431.23</v>
       </c>
       <c r="Q12">
-        <v>380.32400000000001</v>
+        <v>380.324</v>
       </c>
       <c r="R12">
         <v>181.29</v>
@@ -1032,7 +1625,7 @@
         <v>155.798</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:19">
       <c r="B13">
         <v>2</v>
       </c>
@@ -1040,13 +1633,13 @@
         <v>323.916</v>
       </c>
       <c r="D13">
-        <v>0.67975099999999999</v>
+        <v>0.679751</v>
       </c>
       <c r="J13">
         <v>8</v>
       </c>
       <c r="K13">
-        <v>524.76599999999996</v>
+        <v>524.766</v>
       </c>
       <c r="L13">
         <v>0.762652</v>
@@ -1056,63 +1649,63 @@
       </c>
       <c r="P13">
         <f>AVERAGE(P10:P12)</f>
-        <v>447.79299999999995</v>
+        <v>447.793</v>
       </c>
       <c r="Q13">
-        <v>380.58300000000003</v>
+        <v>380.583</v>
       </c>
       <c r="R13">
         <f>AVERAGE(R10:R12)</f>
-        <v>172.15666666666667</v>
+        <v>172.156666666667</v>
       </c>
       <c r="S13">
         <v>150.21</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14">
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14">
-        <v>561.80799999999999</v>
+        <v>561.808</v>
       </c>
       <c r="D14">
-        <v>0.82080299999999995</v>
+        <v>0.820803</v>
       </c>
       <c r="J14">
         <v>12</v>
       </c>
       <c r="K14">
-        <v>592.10900000000004</v>
+        <v>592.109</v>
       </c>
       <c r="L14">
-        <v>0.83185200000000004</v>
+        <v>0.831852</v>
       </c>
       <c r="N14">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12">
       <c r="B15">
         <v>6</v>
       </c>
       <c r="C15">
-        <v>776.73699999999997</v>
+        <v>776.737</v>
       </c>
       <c r="D15">
-        <v>0.88115299999999996</v>
+        <v>0.881153</v>
       </c>
       <c r="J15">
         <v>16</v>
       </c>
       <c r="K15">
-        <v>605.14400000000001</v>
+        <v>605.144</v>
       </c>
       <c r="L15">
         <v>0.870452</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12">
       <c r="B16">
         <v>8</v>
       </c>
@@ -1120,19 +1713,19 @@
         <v>1199.82</v>
       </c>
       <c r="D16">
-        <v>0.91620299999999999</v>
+        <v>0.916203</v>
       </c>
       <c r="J16">
         <v>20</v>
       </c>
       <c r="K16">
-        <v>637.94399999999996</v>
+        <v>637.944</v>
       </c>
       <c r="L16">
-        <v>0.89535299999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.895353</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19">
       <c r="B17">
         <v>10</v>
       </c>
@@ -1140,28 +1733,28 @@
         <v>1368.84</v>
       </c>
       <c r="D17">
-        <v>0.93720300000000001</v>
+        <v>0.937203</v>
       </c>
       <c r="J17">
         <v>28</v>
       </c>
       <c r="K17">
-        <v>812.29399999999998</v>
+        <v>812.294</v>
       </c>
       <c r="L17">
-        <v>0.92835299999999998</v>
-      </c>
-      <c r="N17" s="3" t="s">
+        <v>0.928353</v>
+      </c>
+      <c r="N17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="P17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+    </row>
+    <row r="18" spans="2:16">
       <c r="B18">
         <v>12</v>
       </c>
@@ -1169,7 +1762,7 @@
         <v>1553.06</v>
       </c>
       <c r="D18">
-        <v>0.94990300000000005</v>
+        <v>0.949903</v>
       </c>
       <c r="J18">
         <v>32</v>
@@ -1178,16 +1771,16 @@
         <v>879.68</v>
       </c>
       <c r="L18">
-        <v>0.93820300000000001</v>
+        <v>0.938203</v>
       </c>
       <c r="N18">
         <v>16</v>
       </c>
       <c r="P18">
-        <v>900.88800000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+        <v>900.888</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
       <c r="B19">
         <v>14</v>
       </c>
@@ -1195,16 +1788,16 @@
         <v>1812.84</v>
       </c>
       <c r="D19">
-        <v>0.96040300000000001</v>
+        <v>0.960403</v>
       </c>
       <c r="J19">
         <v>36</v>
       </c>
       <c r="K19">
-        <v>898.90899999999999</v>
+        <v>898.909</v>
       </c>
       <c r="L19">
-        <v>0.94600300000000004</v>
+        <v>0.946003</v>
       </c>
       <c r="N19">
         <v>16</v>
@@ -1213,7 +1806,7 @@
         <v>924.346</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>512</v>
       </c>
@@ -1233,10 +1826,10 @@
         <v>1024</v>
       </c>
       <c r="P20">
-        <v>894.21900000000005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+        <v>894.219</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16">
       <c r="B21">
         <v>4</v>
       </c>
@@ -1244,7 +1837,7 @@
         <v>350.923</v>
       </c>
       <c r="D21">
-        <v>0.76480300000000001</v>
+        <v>0.764803</v>
       </c>
       <c r="J21" t="s">
         <v>0</v>
@@ -1259,70 +1852,70 @@
         <v>16</v>
       </c>
       <c r="P21">
-        <v>934.21400000000006</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+        <v>934.214</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
       <c r="B22">
         <v>8</v>
       </c>
       <c r="C22">
-        <v>549.75300000000004</v>
+        <v>549.753</v>
       </c>
       <c r="D22">
-        <v>0.87650300000000003</v>
+        <v>0.876503</v>
       </c>
       <c r="J22">
         <v>8</v>
       </c>
       <c r="K22">
-        <v>767.55600000000004</v>
+        <v>767.556</v>
       </c>
       <c r="L22">
-        <v>0.70990200000000003</v>
+        <v>0.709902</v>
       </c>
       <c r="N22">
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12">
       <c r="B23">
         <v>12</v>
       </c>
       <c r="C23">
-        <v>821.66099999999994</v>
+        <v>821.661</v>
       </c>
       <c r="D23">
-        <v>0.92120299999999999</v>
+        <v>0.921203</v>
       </c>
       <c r="J23">
         <v>16</v>
       </c>
       <c r="K23">
-        <v>782.94299999999998</v>
+        <v>782.943</v>
       </c>
       <c r="L23">
         <v>0.825152</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:22">
       <c r="B24">
         <v>14</v>
       </c>
       <c r="C24">
-        <v>977.27800000000002</v>
+        <v>977.278</v>
       </c>
       <c r="D24">
-        <v>0.93580300000000005</v>
+        <v>0.935803</v>
       </c>
       <c r="J24">
         <v>24</v>
       </c>
       <c r="K24">
-        <v>861.43799999999999</v>
+        <v>861.438</v>
       </c>
       <c r="L24">
-        <v>0.87860300000000002</v>
+        <v>0.878603</v>
       </c>
       <c r="R24">
         <v>2</v>
@@ -1340,7 +1933,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:22">
       <c r="B25">
         <v>16</v>
       </c>
@@ -1348,38 +1941,38 @@
         <v>1083.48</v>
       </c>
       <c r="D25">
-        <v>0.94500300000000004</v>
+        <v>0.945003</v>
       </c>
       <c r="J25">
         <v>32</v>
       </c>
       <c r="K25">
-        <v>942.55799999999999</v>
+        <v>942.558</v>
       </c>
       <c r="L25">
         <v>0.910103</v>
       </c>
       <c r="R25">
         <f>T25*2.02</f>
-        <v>792.5712400000001</v>
+        <v>792.57124</v>
       </c>
       <c r="S25">
         <f>T25*1.4</f>
-        <v>549.30679999999995</v>
+        <v>549.3068</v>
       </c>
       <c r="T25">
-        <v>392.36200000000002</v>
+        <v>392.362</v>
       </c>
       <c r="U25">
         <f>T25*1.02</f>
-        <v>400.20924000000002</v>
+        <v>400.20924</v>
       </c>
       <c r="V25">
         <f>T25*1.2</f>
-        <v>470.83440000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+        <v>470.8344</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22">
       <c r="B26">
         <v>18</v>
       </c>
@@ -1387,7 +1980,7 @@
         <v>1115.8</v>
       </c>
       <c r="D26">
-        <v>0.95370299999999997</v>
+        <v>0.953703</v>
       </c>
       <c r="J26">
         <v>48</v>
@@ -1400,25 +1993,25 @@
       </c>
       <c r="R26">
         <f t="shared" ref="R26:R28" si="0">T26*2.02</f>
-        <v>749.49070000000006</v>
+        <v>749.4907</v>
       </c>
       <c r="S26">
         <f t="shared" ref="S26:S28" si="1">T26*1.4</f>
-        <v>519.44899999999996</v>
+        <v>519.449</v>
       </c>
       <c r="T26">
-        <v>371.03500000000003</v>
+        <v>371.035</v>
       </c>
       <c r="U26">
         <f t="shared" ref="U26:U28" si="2">T26*1.02</f>
-        <v>378.45570000000004</v>
+        <v>378.4557</v>
       </c>
       <c r="V26">
         <f t="shared" ref="V26:V28" si="3">T26*1.2</f>
-        <v>445.24200000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+        <v>445.242</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22">
       <c r="B27">
         <v>22</v>
       </c>
@@ -1426,7 +2019,7 @@
         <v>1309.01</v>
       </c>
       <c r="D27">
-        <v>0.96420300000000003</v>
+        <v>0.964203</v>
       </c>
       <c r="J27">
         <v>60</v>
@@ -1435,174 +2028,230 @@
         <v>1154.93</v>
       </c>
       <c r="L27">
-        <v>0.95610300000000004</v>
+        <v>0.956103</v>
       </c>
       <c r="R27">
         <f t="shared" si="0"/>
-        <v>768.25448000000006</v>
+        <v>768.25448</v>
       </c>
       <c r="S27">
         <f t="shared" si="1"/>
-        <v>532.45359999999994</v>
+        <v>532.4536</v>
       </c>
       <c r="T27">
-        <v>380.32400000000001</v>
+        <v>380.324</v>
       </c>
       <c r="U27">
         <f t="shared" si="2"/>
-        <v>387.93048000000005</v>
+        <v>387.93048</v>
       </c>
       <c r="V27">
         <f t="shared" si="3"/>
         <v>456.3888</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="18:22">
       <c r="R28">
         <f t="shared" si="0"/>
-        <v>768.77766000000008</v>
+        <v>768.77766</v>
       </c>
       <c r="S28">
         <f t="shared" si="1"/>
-        <v>532.81619999999998</v>
+        <v>532.8162</v>
       </c>
       <c r="T28">
-        <v>380.58300000000003</v>
+        <v>380.583</v>
       </c>
       <c r="U28">
         <f t="shared" si="2"/>
-        <v>388.19466000000006</v>
+        <v>388.19466</v>
       </c>
       <c r="V28">
         <f t="shared" si="3"/>
-        <v>456.69960000000003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B30" s="3" t="s">
+        <v>456.6996</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="G30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="3" t="s">
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="B31" s="3">
+        <v>6944442180</v>
+      </c>
+      <c r="C31" s="3">
+        <v>38365800</v>
+      </c>
+      <c r="D31" s="3">
+        <v>28869685</v>
+      </c>
+      <c r="E31" s="3">
+        <v>9548030</v>
+      </c>
+      <c r="F31" s="3">
+        <v>6177345</v>
+      </c>
+      <c r="G31" s="3">
+        <v>683370</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="4">
-        <v>6944442180</v>
-      </c>
-      <c r="C31" s="4">
-        <v>38365800</v>
-      </c>
-      <c r="D31" s="4">
-        <v>28869685</v>
-      </c>
-      <c r="E31" s="4">
-        <v>9548030</v>
-      </c>
-      <c r="F31" s="4">
-        <v>6177345</v>
-      </c>
-      <c r="G31" s="4">
-        <v>683370</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="B32" s="3">
+        <v>7515895400</v>
+      </c>
+      <c r="C32" s="3">
+        <v>146631900</v>
+      </c>
+      <c r="D32" s="3">
+        <v>11437560</v>
+      </c>
+      <c r="E32" s="3">
+        <v>12548030</v>
+      </c>
+      <c r="F32" s="3">
+        <v>553010</v>
+      </c>
+      <c r="G32" s="3">
+        <v>608150</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="10:19">
+      <c r="J34" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="4">
-        <v>7515895400</v>
-      </c>
-      <c r="C32" s="4">
-        <v>146631900</v>
-      </c>
-      <c r="D32" s="4">
-        <v>11437560</v>
-      </c>
-      <c r="E32" s="4">
-        <v>12548030</v>
-      </c>
-      <c r="F32" s="4">
-        <v>553010</v>
-      </c>
-      <c r="G32" s="4">
-        <v>608150</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="J34" s="8" t="s">
+      <c r="K34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>0.696752</v>
+      </c>
+      <c r="N34">
+        <v>0.824303</v>
+      </c>
+      <c r="O34">
+        <v>0.909604</v>
+      </c>
+      <c r="P34">
+        <v>0.930053</v>
+      </c>
+      <c r="Q34">
+        <v>0.946553</v>
+      </c>
+      <c r="R34">
+        <v>0.972602</v>
+      </c>
+      <c r="S34">
+        <v>0.986</v>
+      </c>
+    </row>
+    <row r="35" spans="10:19">
+      <c r="J35" s="9"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>46.844</v>
+      </c>
+      <c r="N35">
+        <v>54.391</v>
+      </c>
+      <c r="O35">
+        <v>70.6525</v>
+      </c>
+      <c r="P35">
+        <v>127.06</v>
+      </c>
+      <c r="Q35">
+        <v>91.9625</v>
+      </c>
+      <c r="R35">
+        <v>113.6</v>
+      </c>
+      <c r="S35">
+        <v>170.52</v>
+      </c>
+    </row>
+    <row r="36" spans="6:12">
+      <c r="F36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="J35" s="9"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J36" s="10" t="s">
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="2:12">
+      <c r="B37" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="B37" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="6"/>
+      <c r="C37" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="5"/>
       <c r="F37">
-        <v>159.15100000000001</v>
+        <v>159.151</v>
       </c>
       <c r="G37">
         <v>200.93</v>
       </c>
       <c r="H37">
-        <v>111.68899999999999</v>
+        <v>111.689</v>
       </c>
       <c r="I37">
-        <v>94.828500000000005</v>
+        <v>94.8285</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B38">
@@ -1611,12 +2260,12 @@
       <c r="C38">
         <v>0.997</v>
       </c>
-      <c r="E38" s="3"/>
+      <c r="E38" s="2"/>
       <c r="F38">
-        <v>151.68299999999999</v>
+        <v>151.683</v>
       </c>
       <c r="G38">
-        <v>178.66900000000001</v>
+        <v>178.669</v>
       </c>
       <c r="H38">
         <v>111.601</v>
@@ -1625,50 +2274,38 @@
         <v>94.381</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L38">
         <v>32</v>
       </c>
-      <c r="M38">
-        <v>4</v>
-      </c>
-      <c r="N38">
-        <v>20</v>
-      </c>
-      <c r="O38">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="21.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>26</v>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B39">
         <v>8550083600</v>
       </c>
       <c r="C39">
-        <v>1.2310000000000001</v>
+        <v>1.231</v>
       </c>
       <c r="F39">
         <v>149.71</v>
       </c>
       <c r="G39">
-        <v>214.82300000000001</v>
+        <v>214.823</v>
       </c>
       <c r="H39">
         <v>113.76</v>
       </c>
       <c r="I39">
-        <v>93.718999999999994</v>
+        <v>93.719</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B40">
         <v>7316077200</v>
@@ -1676,40 +2313,40 @@
       <c r="C40">
         <v>1.169</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="6">
         <f>AVERAGE(F37:F39)</f>
-        <v>153.51466666666667</v>
+        <v>153.514666666667</v>
       </c>
       <c r="G40">
-        <v>186.15600000000001</v>
+        <v>186.156</v>
       </c>
       <c r="H40">
         <f>AVERAGE(H37:H39)</f>
-        <v>112.35000000000001</v>
+        <v>112.35</v>
       </c>
       <c r="I40">
         <f>AVERAGE(I37:I39)</f>
         <v>94.3095</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>12</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B41">
         <v>5864398700</v>
       </c>
       <c r="C41">
-        <v>1.3460000000000001</v>
+        <v>1.346</v>
       </c>
       <c r="J41" s="9"/>
     </row>
-    <row r="42" spans="1:15" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>27</v>
+    <row r="42" ht="14.25" spans="1:20">
+      <c r="A42" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B42">
         <v>4892010000</v>
@@ -1718,50 +2355,109 @@
         <v>1.411</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M42">
+        <v>0.70901</v>
+      </c>
+      <c r="N42">
+        <v>0.8493</v>
+      </c>
+      <c r="O42">
+        <v>0.9004</v>
+      </c>
+      <c r="P42">
+        <v>0.910904</v>
+      </c>
+      <c r="Q42">
+        <v>0.931953</v>
+      </c>
+      <c r="R42">
+        <v>0.954303</v>
+      </c>
+      <c r="S42">
+        <v>0.965353</v>
+      </c>
+      <c r="T42">
+        <v>0.981002</v>
+      </c>
+    </row>
+    <row r="43" spans="10:20">
       <c r="J43" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>92.744</v>
+      </c>
+      <c r="N43">
+        <v>120.016</v>
+      </c>
+      <c r="O43">
+        <v>146.32</v>
+      </c>
+      <c r="P43">
+        <v>159.415</v>
+      </c>
+      <c r="Q43">
+        <v>169.281</v>
+      </c>
+      <c r="R43">
+        <v>186.301</v>
+      </c>
+      <c r="S43">
+        <v>233.235</v>
+      </c>
+      <c r="T43">
+        <v>393.284</v>
+      </c>
+    </row>
+    <row r="44" spans="10:12">
       <c r="J44" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="10:12">
       <c r="J45" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F46" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="6:10">
+      <c r="F46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H46" s="3" t="s">
+      <c r="G46" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="H46" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="I46" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>25</v>
+      <c r="J46" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="F47">
-        <v>159.15100000000001</v>
+        <v>159.151</v>
       </c>
       <c r="G47">
         <v>324.12</v>
@@ -1770,30 +2466,30 @@
         <v>200.93</v>
       </c>
       <c r="I47">
-        <v>111.68899999999999</v>
+        <v>111.689</v>
       </c>
       <c r="J47">
-        <v>94.828500000000005</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
+        <v>94.8285</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="A48" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B48">
         <v>1429600000</v>
       </c>
-      <c r="C48" s="11">
-        <v>1.0509999999999999</v>
+      <c r="C48" s="7">
+        <v>1.051</v>
       </c>
       <c r="F48">
-        <v>151.68299999999999</v>
+        <v>151.683</v>
       </c>
       <c r="G48">
         <v>331.221</v>
       </c>
       <c r="H48">
-        <v>178.66900000000001</v>
+        <v>178.669</v>
       </c>
       <c r="I48">
         <v>111.601</v>
@@ -1801,10 +2497,43 @@
       <c r="J48">
         <v>94.381</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>45</v>
+      <c r="K48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M48">
+        <v>0.802754</v>
+      </c>
+      <c r="N48">
+        <v>0.838654</v>
+      </c>
+      <c r="O48">
+        <v>0.904455</v>
+      </c>
+      <c r="P48">
+        <v>0.914405</v>
+      </c>
+      <c r="Q48">
+        <v>0.928155</v>
+      </c>
+      <c r="R48">
+        <v>0.933805</v>
+      </c>
+      <c r="S48">
+        <v>0.941655</v>
+      </c>
+      <c r="T48">
+        <v>0.952655</v>
+      </c>
+      <c r="U48">
+        <v>0.975803</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B49">
         <v>5296300000</v>
@@ -1819,18 +2548,48 @@
         <v>299.017</v>
       </c>
       <c r="H49">
-        <v>214.82300000000001</v>
+        <v>214.823</v>
       </c>
       <c r="I49">
         <v>113.76</v>
       </c>
       <c r="J49">
-        <v>93.718999999999994</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>12</v>
+        <v>93.719</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>71.3955</v>
+      </c>
+      <c r="N49">
+        <v>80.87</v>
+      </c>
+      <c r="O49">
+        <v>94.5</v>
+      </c>
+      <c r="P49">
+        <v>125.173</v>
+      </c>
+      <c r="Q49">
+        <v>163.199</v>
+      </c>
+      <c r="R49">
+        <v>213.775</v>
+      </c>
+      <c r="S49">
+        <v>244.195</v>
+      </c>
+      <c r="T49">
+        <v>414.733</v>
+      </c>
+      <c r="U49">
+        <v>553.523</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B50">
         <v>3170746300</v>
@@ -1838,62 +2597,68 @@
       <c r="C50">
         <v>1.502</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="6">
         <f>AVERAGE(F47:F49)</f>
-        <v>153.51466666666667</v>
+        <v>153.514666666667</v>
       </c>
       <c r="G50">
-        <v>302.83999999999997</v>
+        <v>302.84</v>
       </c>
       <c r="H50">
-        <v>186.15600000000001</v>
+        <v>186.156</v>
       </c>
       <c r="I50">
         <f>AVERAGE(I47:I49)</f>
-        <v>112.35000000000001</v>
+        <v>112.35</v>
       </c>
       <c r="J50">
         <f>AVERAGE(J47:J49)</f>
         <v>94.3095</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="3"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="3"/>
+    <row r="51" spans="1:1">
+      <c r="A51" s="2"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>